--- a/ExcelFile/Output.xlsx
+++ b/ExcelFile/Output.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aayush\eclipse-workspace\IdentifyCourses2\ExcelFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aayush\eclipse-workspace\IdentifyCourses\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEDF203-5DAF-4E07-999B-3433B0FD5DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA62DBA3-9243-4C71-B9D1-03893EC6366D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Levels" sheetId="1" r:id="rId1"/>
-    <sheet name="Languages" sheetId="2" r:id="rId2"/>
+    <sheet name="Courses" sheetId="3" r:id="rId2"/>
+    <sheet name="Languages" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Levels</t>
   </si>
@@ -37,21 +38,12 @@
     <t>Introductory</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
     <t>Intermediate</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
     <t>Advanced</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>Languages</t>
   </si>
   <si>
@@ -79,18 +71,41 @@
     <t>2</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>2254</t>
+    <t>30</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Course Name</t>
+  </si>
+  <si>
+    <t>Introduction to Cloud 
+Development with 
+HTML5, CSS3, and 
+JavaScript</t>
+  </si>
+  <si>
+    <t>Estimated Time</t>
+  </si>
+  <si>
+    <t>4Weeks</t>
+  </si>
+  <si>
+    <t>JavaScript Introduction</t>
+  </si>
+  <si>
+    <t>5Weeks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,194 +124,12 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -319,48 +152,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,43 +445,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -688,51 +490,95 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF088C2-B924-4B51-9F0F-4BCDE946FD10}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49BAA896-9E41-41D0-A94A-CC06BF724E66}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelFile/Output.xlsx
+++ b/ExcelFile/Output.xlsx
@@ -3,12 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aayush\eclipse-workspace\IdentifyCourses\ExcelFile\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA62DBA3-9243-4C71-B9D1-03893EC6366D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9AE0290D-8037-4B26-8F95-BEFD95104533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +12,10 @@
     <sheet name="Courses" sheetId="3" r:id="rId2"/>
     <sheet name="Languages" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:M5"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="21">
   <si>
     <t>Levels</t>
   </si>
@@ -44,68 +40,60 @@
     <t>Advanced</t>
   </si>
   <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Course Name</t>
+  </si>
+  <si>
+    <t>JavaScript Introduction</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Introduction to Cloud Development with HTML5, CSS3, and JavaScript</t>
+  </si>
+  <si>
+    <t>Estimated 4 weeks</t>
+  </si>
+  <si>
+    <t>Estimated 5 weeks</t>
+  </si>
+  <si>
     <t>Languages</t>
   </si>
   <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>French</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Italian</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Spanish</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Course Name</t>
-  </si>
-  <si>
-    <t>Introduction to Cloud 
-Development with 
-HTML5, CSS3, and 
-JavaScript</t>
-  </si>
-  <si>
-    <t>Estimated Time</t>
-  </si>
-  <si>
-    <t>4Weeks</t>
-  </si>
-  <si>
-    <t>JavaScript Introduction</t>
-  </si>
-  <si>
-    <t>5Weeks</t>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Course Time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,10 +114,142 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -152,17 +272,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,39 +590,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -499,32 +640,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="67.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1">
+      <c r="A1" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -540,45 +681,48 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="19.5703125" collapsed="true"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
